--- a/testcases/IrishNetwork.xlsx
+++ b/testcases/IrishNetwork.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="441" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="441" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="busbar" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="demand" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="branch" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="transformer" sheetId="4" state="visible" r:id="rId5"/>
@@ -569,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="R3:R50 A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -693,7 +693,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="R3:R50 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,7 +744,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="R3:R50 D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="R3:R50 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="R3:R50 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1407,7 +1407,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="R3:R50 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R3:R50 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="R3:R50 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="R3:R50 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1711,10 +1711,10 @@
   </sheetPr>
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R3" activeCellId="0" sqref="R3:R50"/>
+      <selection pane="bottomLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6631,7 +6631,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="R3:R50 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/testcases/IrishNetwork.xlsx
+++ b/testcases/IrishNetwork.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="441" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="422" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,14 +21,14 @@
     <sheet name="timeseries" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">generator!$A$2:$Q$74</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">generator!$A$2:$R$74</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -569,7 +569,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1404,18 +1404,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>47</v>
       </c>
@@ -1429,39 +1429,42 @@
         <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1709,19 +1712,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,57 +1738,60 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1800,61 +1806,64 @@
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H2" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1.04548848515</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>347.4</v>
+        <v>12</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1.04548848515</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>347.4</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>347.4</v>
+      </c>
+      <c r="N2" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="n">
         <v>47600</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="S2" s="1" t="n">
         <v>47600</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="X2" s="5"/>
+      <c r="V2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1867,61 +1876,64 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1.04548848515</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>347.4</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1.04548848515</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>347.4</v>
       </c>
       <c r="M3" s="1" t="n">
+        <v>347.4</v>
+      </c>
+      <c r="N3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>47600</v>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>47600</v>
       </c>
-      <c r="S3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5" t="n">
+      <c r="S3" s="4" t="n">
+        <v>47600</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="U3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="X3" s="5"/>
+      <c r="V3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -1934,60 +1946,63 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K4" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>60.6</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>5050</v>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>5050</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
+      <c r="S4" s="4" t="n">
+        <v>5050</v>
       </c>
       <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1"/>
+      <c r="V4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -2000,60 +2015,63 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>364.2</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>12350</v>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>12350</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
+      <c r="S5" s="4" t="n">
+        <v>12350</v>
       </c>
       <c r="T5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1"/>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -2066,60 +2084,63 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K6" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>364.2</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12350</v>
+      <c r="Q6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R6" s="4" t="n">
         <v>12350</v>
       </c>
-      <c r="S6" s="0" t="n">
-        <v>0</v>
+      <c r="S6" s="4" t="n">
+        <v>12350</v>
       </c>
       <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1"/>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -2132,60 +2153,63 @@
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K7" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>580.2</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>118.8</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0.02</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>8500</v>
+      <c r="Q7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R7" s="4" t="n">
         <v>8500</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <v>0</v>
+      <c r="S7" s="4" t="n">
+        <v>8500</v>
       </c>
       <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1"/>
+      <c r="V7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -2198,60 +2222,63 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K8" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>580.2</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>118.8</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0.02</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>8500</v>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R8" s="4" t="n">
         <v>8500</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <v>0</v>
+      <c r="S8" s="4" t="n">
+        <v>8500</v>
       </c>
       <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1"/>
+      <c r="V8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -2264,60 +2291,63 @@
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K9" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>580.2</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>118.8</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0.02</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>8500</v>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="n">
         <v>8500</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>0</v>
+      <c r="S9" s="4" t="n">
+        <v>8500</v>
       </c>
       <c r="T9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1"/>
+      <c r="V9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2330,60 +2360,63 @@
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>412</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K10" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>501</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>900</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>20600</v>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="n">
         <v>20600</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <v>0</v>
+      <c r="S10" s="4" t="n">
+        <v>20600</v>
       </c>
       <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1"/>
+      <c r="V10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2396,60 +2429,63 @@
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>12.084</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>241.8</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>241.8</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.5</v>
+        <v>241.8</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>604.2</v>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R11" s="4" t="n">
         <v>604.2</v>
       </c>
-      <c r="S11" s="0" t="n">
-        <v>0</v>
+      <c r="S11" s="4" t="n">
+        <v>604.2</v>
       </c>
       <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1"/>
+      <c r="V11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2462,60 +2498,63 @@
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K12" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>385.8</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>580</v>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R12" s="4" t="n">
         <v>580</v>
       </c>
-      <c r="S12" s="0" t="n">
-        <v>0</v>
+      <c r="S12" s="4" t="n">
+        <v>580</v>
       </c>
       <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1"/>
+      <c r="V12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -2528,60 +2567,63 @@
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I13" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K13" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>385.8</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4" t="n">
-        <v>580</v>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R13" s="4" t="n">
         <v>580</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <v>0</v>
+      <c r="S13" s="4" t="n">
+        <v>580</v>
       </c>
       <c r="T13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1"/>
+      <c r="V13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -2594,60 +2636,63 @@
         <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>3000</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="N14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="P14" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4" t="n">
-        <v>580</v>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R14" s="4" t="n">
         <v>580</v>
       </c>
-      <c r="S14" s="0" t="n">
-        <v>0</v>
+      <c r="S14" s="4" t="n">
+        <v>580</v>
       </c>
       <c r="T14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1"/>
+      <c r="V14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -2660,60 +2705,63 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>160.2</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>160.2</v>
       </c>
       <c r="M15" s="0" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>290</v>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R15" s="4" t="n">
         <v>290</v>
       </c>
-      <c r="S15" s="0" t="n">
-        <v>0</v>
+      <c r="S15" s="4" t="n">
+        <v>290</v>
       </c>
       <c r="T15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1"/>
+      <c r="V15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -2726,60 +2774,63 @@
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I16" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>160.2</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>160.2</v>
       </c>
       <c r="M16" s="0" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="P16" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="4" t="n">
-        <v>290</v>
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R16" s="4" t="n">
         <v>290</v>
       </c>
-      <c r="S16" s="0" t="n">
-        <v>0</v>
+      <c r="S16" s="4" t="n">
+        <v>290</v>
       </c>
       <c r="T16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1"/>
+      <c r="V16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -2792,60 +2843,63 @@
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="n">
         <v>12.819375</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I17" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>600</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>600</v>
       </c>
       <c r="M17" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="N17" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="P17" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4" t="n">
-        <v>420</v>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R17" s="4" t="n">
         <v>420</v>
       </c>
-      <c r="S17" s="0" t="n">
-        <v>0</v>
+      <c r="S17" s="4" t="n">
+        <v>420</v>
       </c>
       <c r="T17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1"/>
+      <c r="V17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -2858,60 +2912,63 @@
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <v>12.819375</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I18" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>600</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>600</v>
       </c>
       <c r="M18" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4" t="n">
-        <v>420</v>
+      <c r="Q18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R18" s="4" t="n">
         <v>420</v>
       </c>
-      <c r="S18" s="0" t="n">
-        <v>0</v>
+      <c r="S18" s="4" t="n">
+        <v>420</v>
       </c>
       <c r="T18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1"/>
+      <c r="V18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -2924,60 +2981,63 @@
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I19" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>480</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>480</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.5</v>
+        <v>480</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4" t="n">
-        <v>720</v>
+      <c r="Q19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R19" s="4" t="n">
         <v>720</v>
       </c>
-      <c r="S19" s="0" t="n">
-        <v>0</v>
+      <c r="S19" s="4" t="n">
+        <v>720</v>
       </c>
       <c r="T19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1"/>
+      <c r="V19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -2990,60 +3050,63 @@
         <v>1</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="n">
         <v>12.75</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>18.2</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I20" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>2.4</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>2.4</v>
       </c>
       <c r="M20" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="P20" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="P20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4" t="n">
-        <v>0</v>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="U20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1"/>
+      <c r="V20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3056,61 +3119,64 @@
         <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K21" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L21" s="0" t="n">
         <v>272.4</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>97.8</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O21" s="0" t="s">
+      <c r="P21" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="P21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>57000</v>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R21" s="4" t="n">
         <v>57000</v>
       </c>
-      <c r="S21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="5" t="n">
+      <c r="S21" s="4" t="n">
+        <v>57000</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="U21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="X21" s="5"/>
+      <c r="V21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="Y21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3123,61 +3189,64 @@
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I22" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K22" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L22" s="0" t="n">
         <v>269.4</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="P22" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4" t="n">
-        <v>57000</v>
+      <c r="Q22" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R22" s="4" t="n">
         <v>57000</v>
       </c>
-      <c r="S22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="5" t="n">
+      <c r="S22" s="4" t="n">
+        <v>57000</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="U22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="X22" s="5"/>
+      <c r="V22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="Y22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3190,61 +3259,64 @@
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K23" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L23" s="0" t="n">
         <v>272.4</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>97.8</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O23" s="0" t="s">
+      <c r="P23" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="P23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="4" t="n">
-        <v>57000</v>
+      <c r="Q23" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R23" s="4" t="n">
         <v>57000</v>
       </c>
-      <c r="S23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5" t="n">
+      <c r="S23" s="4" t="n">
+        <v>57000</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="U23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1"/>
-      <c r="X23" s="5"/>
+      <c r="V23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="Y23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -3257,60 +3329,63 @@
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I24" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K24" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L24" s="0" t="n">
         <v>231.6</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>232.2</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="O24" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O24" s="0" t="s">
+      <c r="P24" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4" t="n">
-        <v>12900</v>
+      <c r="Q24" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R24" s="4" t="n">
         <v>12900</v>
       </c>
-      <c r="S24" s="0" t="n">
-        <v>0</v>
+      <c r="S24" s="4" t="n">
+        <v>12900</v>
       </c>
       <c r="T24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1"/>
+      <c r="V24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -3323,60 +3398,63 @@
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>444</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K25" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L25" s="0" t="n">
         <v>742.5</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>529.8</v>
       </c>
-      <c r="M25" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="N25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="P25" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4" t="n">
-        <v>22200</v>
+      <c r="Q25" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R25" s="4" t="n">
         <v>22200</v>
       </c>
-      <c r="S25" s="0" t="n">
-        <v>0</v>
+      <c r="S25" s="4" t="n">
+        <v>22200</v>
       </c>
       <c r="T25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1"/>
+      <c r="V25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3389,60 +3467,63 @@
         <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I26" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>300</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>300</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="N26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O26" s="0" t="s">
+      <c r="P26" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4" t="n">
-        <v>4500</v>
+      <c r="Q26" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R26" s="4" t="n">
         <v>4500</v>
       </c>
-      <c r="S26" s="0" t="n">
-        <v>0</v>
+      <c r="S26" s="4" t="n">
+        <v>4500</v>
       </c>
       <c r="T26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1"/>
+      <c r="V26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3455,60 +3536,63 @@
         <v>1</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I27" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>300</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>300</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="N27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O27" s="0" t="s">
+      <c r="P27" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4" t="n">
-        <v>4500</v>
+      <c r="Q27" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R27" s="4" t="n">
         <v>4500</v>
       </c>
-      <c r="S27" s="0" t="n">
-        <v>0</v>
+      <c r="S27" s="4" t="n">
+        <v>4500</v>
       </c>
       <c r="T27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1"/>
+      <c r="V27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -3521,60 +3605,63 @@
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>300</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>300</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="N28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O28" s="0" t="s">
+      <c r="P28" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4" t="n">
-        <v>4500</v>
+      <c r="Q28" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R28" s="4" t="n">
         <v>4500</v>
       </c>
-      <c r="S28" s="0" t="n">
-        <v>0</v>
+      <c r="S28" s="4" t="n">
+        <v>4500</v>
       </c>
       <c r="T28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1"/>
+      <c r="V28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -3587,60 +3674,63 @@
         <v>1</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>415</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I29" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K29" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L29" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="M29" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="N29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O29" s="0" t="s">
+      <c r="P29" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4" t="n">
-        <v>20750</v>
+      <c r="Q29" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R29" s="4" t="n">
         <v>20750</v>
       </c>
-      <c r="S29" s="0" t="n">
-        <v>0</v>
+      <c r="S29" s="4" t="n">
+        <v>20750</v>
       </c>
       <c r="T29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="1"/>
+      <c r="V29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -3653,60 +3743,63 @@
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>464</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I30" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K30" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L30" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>1030.2</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="4" t="n">
-        <v>23200</v>
+      <c r="Q30" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R30" s="4" t="n">
         <v>23200</v>
       </c>
-      <c r="S30" s="0" t="n">
-        <v>0</v>
+      <c r="S30" s="4" t="n">
+        <v>23200</v>
       </c>
       <c r="T30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1"/>
+      <c r="V30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -3719,60 +3812,63 @@
         <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>404</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I31" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>1200</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O31" s="0" t="s">
+      <c r="O31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="4" t="n">
-        <v>20200</v>
+      <c r="Q31" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R31" s="4" t="n">
         <v>20200</v>
       </c>
-      <c r="S31" s="0" t="n">
-        <v>0</v>
+      <c r="S31" s="4" t="n">
+        <v>20200</v>
       </c>
       <c r="T31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1"/>
+      <c r="V31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -3785,60 +3881,63 @@
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I32" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>420</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>420</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O32" s="0" t="s">
+      <c r="O32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4" t="n">
-        <v>17150</v>
+      <c r="Q32" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R32" s="4" t="n">
         <v>17150</v>
       </c>
-      <c r="S32" s="0" t="n">
-        <v>0</v>
+      <c r="S32" s="4" t="n">
+        <v>17150</v>
       </c>
       <c r="T32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1"/>
+      <c r="V32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -3851,60 +3950,63 @@
         <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I33" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>300</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>300</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="N33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O33" s="0" t="s">
+      <c r="P33" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="4" t="n">
-        <v>4750</v>
+      <c r="Q33" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R33" s="4" t="n">
         <v>4750</v>
       </c>
-      <c r="S33" s="0" t="n">
-        <v>0</v>
+      <c r="S33" s="4" t="n">
+        <v>4750</v>
       </c>
       <c r="T33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1"/>
+      <c r="V33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -3917,60 +4019,63 @@
         <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I34" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>480</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>480</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="N34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O34" s="0" t="s">
+      <c r="P34" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4" t="n">
-        <v>5450</v>
+      <c r="Q34" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R34" s="4" t="n">
         <v>5450</v>
       </c>
-      <c r="S34" s="0" t="n">
-        <v>0</v>
+      <c r="S34" s="4" t="n">
+        <v>5450</v>
       </c>
       <c r="T34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1"/>
+      <c r="V34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -3983,60 +4088,63 @@
         <v>1</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I35" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>660</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>660</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>4</v>
+        <v>660</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="O35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P35" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="4" t="n">
-        <v>25600</v>
+      <c r="Q35" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R35" s="4" t="n">
         <v>25600</v>
       </c>
-      <c r="S35" s="0" t="n">
-        <v>0</v>
+      <c r="S35" s="4" t="n">
+        <v>25600</v>
       </c>
       <c r="T35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1"/>
+      <c r="V35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -4049,60 +4157,63 @@
         <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I36" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>360</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L36" s="0" t="n">
         <v>360</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O36" s="0" t="s">
+      <c r="O36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="4" t="n">
-        <v>4150</v>
+      <c r="Q36" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R36" s="4" t="n">
         <v>4150</v>
       </c>
-      <c r="S36" s="0" t="n">
-        <v>0</v>
+      <c r="S36" s="4" t="n">
+        <v>4150</v>
       </c>
       <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1"/>
+      <c r="V36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -4115,60 +4226,63 @@
         <v>1</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="H37" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I37" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>360</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>360</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O37" s="0" t="s">
+      <c r="O37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="4" t="n">
-        <v>4150</v>
+      <c r="Q37" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R37" s="4" t="n">
         <v>4150</v>
       </c>
-      <c r="S37" s="0" t="n">
-        <v>0</v>
+      <c r="S37" s="4" t="n">
+        <v>4150</v>
       </c>
       <c r="T37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1"/>
+      <c r="V37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -4181,60 +4295,63 @@
         <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="H38" s="0" t="n">
         <v>404</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I38" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K38" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L38" s="0" t="n">
         <v>607.8</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="M38" s="0" t="n">
         <v>750</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O38" s="0" t="s">
+      <c r="O38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4" t="n">
-        <v>20200</v>
+      <c r="Q38" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>20200</v>
       </c>
-      <c r="S38" s="0" t="n">
-        <v>0</v>
+      <c r="S38" s="4" t="n">
+        <v>20200</v>
       </c>
       <c r="T38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1"/>
+      <c r="V38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -4247,60 +4364,63 @@
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="H39" s="0" t="n">
         <v>445</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I39" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K39" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L39" s="0" t="n">
         <v>1608</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="M39" s="0" t="n">
         <v>1236</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O39" s="0" t="s">
+      <c r="O39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P39" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="P39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4" t="n">
-        <v>22250</v>
+      <c r="Q39" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>22250</v>
       </c>
-      <c r="S39" s="0" t="n">
-        <v>0</v>
+      <c r="S39" s="4" t="n">
+        <v>22250</v>
       </c>
       <c r="T39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="U39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1"/>
+      <c r="V39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -4313,60 +4433,63 @@
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="H40" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I40" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>300</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>300</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>0.5</v>
+        <v>300</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="O40" s="0" t="s">
+      <c r="O40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4" t="n">
-        <v>580</v>
+      <c r="Q40" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
         <v>580</v>
       </c>
-      <c r="S40" s="0" t="n">
-        <v>0</v>
+      <c r="S40" s="4" t="n">
+        <v>580</v>
       </c>
       <c r="T40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="1"/>
+      <c r="V40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -4379,60 +4502,63 @@
         <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I41" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>300</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>300</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0.5</v>
+        <v>300</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="O41" s="0" t="s">
+      <c r="O41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4" t="n">
-        <v>580</v>
+      <c r="Q41" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>580</v>
       </c>
-      <c r="S41" s="0" t="n">
-        <v>0</v>
+      <c r="S41" s="4" t="n">
+        <v>580</v>
       </c>
       <c r="T41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="1"/>
+      <c r="V41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -4445,60 +4571,63 @@
         <v>1</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="H42" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I42" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>600</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>600</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.75</v>
+        <v>600</v>
       </c>
       <c r="N42" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="O42" s="0" t="s">
+      <c r="O42" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P42" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="4" t="n">
-        <v>520</v>
+      <c r="Q42" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>520</v>
       </c>
-      <c r="S42" s="0" t="n">
-        <v>0</v>
+      <c r="S42" s="4" t="n">
+        <v>520</v>
       </c>
       <c r="T42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" s="1"/>
+      <c r="V42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -4511,60 +4640,63 @@
         <v>1</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="H43" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I43" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>600</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L43" s="0" t="n">
         <v>600</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>0.75</v>
+        <v>600</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="O43" s="0" t="s">
+      <c r="O43" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P43" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="4" t="n">
-        <v>520</v>
+      <c r="Q43" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R43" s="4" t="n">
         <v>520</v>
       </c>
-      <c r="S43" s="0" t="n">
-        <v>0</v>
+      <c r="S43" s="4" t="n">
+        <v>520</v>
       </c>
       <c r="T43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="1"/>
+      <c r="V43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -4577,60 +4709,63 @@
         <v>1</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="H44" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I44" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>600</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L44" s="0" t="n">
         <v>600</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0.75</v>
+        <v>600</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="O44" s="0" t="s">
+      <c r="O44" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P44" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="4" t="n">
-        <v>520</v>
+      <c r="Q44" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
         <v>520</v>
       </c>
-      <c r="S44" s="0" t="n">
-        <v>0</v>
+      <c r="S44" s="4" t="n">
+        <v>520</v>
       </c>
       <c r="T44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="1"/>
+      <c r="V44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -4643,60 +4778,63 @@
         <v>1</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="H45" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I45" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>600</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>600</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0.75</v>
+        <v>600</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="O45" s="0" t="s">
+      <c r="O45" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P45" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="4" t="n">
-        <v>520</v>
+      <c r="Q45" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v>520</v>
       </c>
-      <c r="S45" s="0" t="n">
-        <v>0</v>
+      <c r="S45" s="4" t="n">
+        <v>520</v>
       </c>
       <c r="T45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="1"/>
+      <c r="V45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -4709,60 +4847,63 @@
         <v>1</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="H46" s="0" t="n">
         <v>117.6</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I46" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>105.6</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L46" s="0" t="n">
         <v>105.6</v>
       </c>
       <c r="M46" s="0" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="N46" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="O46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O46" s="0" t="s">
+      <c r="P46" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="P46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="4" t="n">
-        <v>1176</v>
+      <c r="Q46" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R46" s="4" t="n">
         <v>1176</v>
       </c>
-      <c r="S46" s="0" t="n">
-        <v>0</v>
+      <c r="S46" s="4" t="n">
+        <v>1176</v>
       </c>
       <c r="T46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="U46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="1"/>
+      <c r="V46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -4775,60 +4916,63 @@
         <v>1</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="H47" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I47" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>60</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L47" s="0" t="n">
         <v>60</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O47" s="0" t="s">
+      <c r="O47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="4" t="n">
-        <v>540</v>
+      <c r="Q47" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R47" s="4" t="n">
         <v>540</v>
       </c>
-      <c r="S47" s="0" t="n">
-        <v>0</v>
+      <c r="S47" s="4" t="n">
+        <v>540</v>
       </c>
       <c r="T47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="U47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="1"/>
+      <c r="V47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -4841,60 +4985,63 @@
         <v>1</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="H48" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I48" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>60</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>60</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N48" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O48" s="0" t="s">
+      <c r="O48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="4" t="n">
-        <v>540</v>
+      <c r="Q48" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R48" s="4" t="n">
         <v>540</v>
       </c>
-      <c r="S48" s="0" t="n">
-        <v>0</v>
+      <c r="S48" s="4" t="n">
+        <v>540</v>
       </c>
       <c r="T48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="U48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="1"/>
+      <c r="V48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -4907,60 +5054,63 @@
         <v>1</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>34.85</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="H49" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I49" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>120</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>120</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="N49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O49" s="0" t="s">
+      <c r="O49" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P49" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="4" t="n">
-        <v>2430</v>
+      <c r="Q49" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R49" s="4" t="n">
         <v>2430</v>
       </c>
-      <c r="S49" s="0" t="n">
-        <v>0</v>
+      <c r="S49" s="4" t="n">
+        <v>2430</v>
       </c>
       <c r="T49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="U49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="1"/>
+      <c r="V49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -4973,60 +5123,63 @@
         <v>1</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <v>34.85</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="H50" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I50" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J50" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>120</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L50" s="0" t="n">
         <v>120</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O50" s="0" t="s">
+      <c r="O50" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P50" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="4" t="n">
-        <v>2430</v>
+      <c r="Q50" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R50" s="4" t="n">
         <v>2430</v>
       </c>
-      <c r="S50" s="0" t="n">
-        <v>0</v>
+      <c r="S50" s="4" t="n">
+        <v>2430</v>
       </c>
       <c r="T50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="U50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="1"/>
+      <c r="V50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -5039,60 +5192,63 @@
         <v>1</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="H51" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I51" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K51" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L51" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <v>82.2</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O51" s="0" t="s">
+      <c r="O51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P51" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="P51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S51" s="0" t="n">
-        <v>0</v>
+      <c r="Q51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="U51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="1"/>
+      <c r="V51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -5105,60 +5261,63 @@
         <v>1</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="H52" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I52" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>42</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>42</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O52" s="0" t="s">
+      <c r="O52" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P52" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="P52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R52" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S52" s="0" t="n">
-        <v>0</v>
+      <c r="Q52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="U52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" s="1"/>
+      <c r="V52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -5171,60 +5330,63 @@
         <v>1</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="0" t="n">
         <v>21.35</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="H53" s="0" t="n">
         <v>68.197</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I53" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J53" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>55.2</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>55.2</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O53" s="0" t="s">
+      <c r="O53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="P53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R53" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S53" s="0" t="n">
-        <v>0</v>
+      <c r="Q53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="U53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" s="1"/>
+      <c r="V53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -5237,60 +5399,63 @@
         <v>1</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="0" t="n">
         <v>14.87</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="H54" s="0" t="n">
         <v>42.5</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I54" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>50</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>50</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O54" s="0" t="s">
+      <c r="O54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="P54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R54" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S54" s="0" t="n">
-        <v>0</v>
+      <c r="Q54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="U54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" s="1"/>
+      <c r="V54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -5303,60 +5468,63 @@
         <v>1</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I55" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K55" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L55" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="M55" s="0" t="n">
         <v>21.6</v>
       </c>
-      <c r="M55" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O55" s="0" t="s">
+      <c r="O55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="P55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R55" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <v>0</v>
+      <c r="Q55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="U55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" s="1"/>
+      <c r="V55" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -5369,60 +5537,63 @@
         <v>1</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I56" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>25.2</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>25.2</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="N56" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O56" s="0" t="s">
+      <c r="O56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R56" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S56" s="0" t="n">
-        <v>0</v>
+      <c r="Q56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" s="1"/>
+      <c r="V56" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -5435,60 +5606,63 @@
         <v>1</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I57" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>28.2</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>28.2</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="N57" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O57" s="0" t="s">
+      <c r="O57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R57" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S57" s="0" t="n">
-        <v>0</v>
+      <c r="Q57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U57" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" s="1"/>
+      <c r="V57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -5501,60 +5675,63 @@
         <v>1</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I58" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K58" s="0" t="n">
-        <v>19.8</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>19.8</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>0</v>
+        <v>19.8</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O58" s="0" t="s">
+      <c r="O58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R58" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S58" s="0" t="n">
-        <v>0</v>
+      <c r="Q58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" s="1"/>
+      <c r="V58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -5567,60 +5744,63 @@
         <v>1</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I59" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>33</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>33</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O59" s="0" t="s">
+      <c r="O59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R59" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>0</v>
+      <c r="Q59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U59" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" s="1"/>
+      <c r="V59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -5633,60 +5813,63 @@
         <v>1</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K60" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L60" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="M60" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M60" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O60" s="0" t="s">
+      <c r="O60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R60" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S60" s="0" t="n">
-        <v>0</v>
+      <c r="Q60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U60" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" s="1"/>
+      <c r="V60" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -5699,60 +5882,63 @@
         <v>1</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K61" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L61" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="M61" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M61" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O61" s="0" t="s">
+      <c r="O61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R61" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S61" s="0" t="n">
-        <v>0</v>
+      <c r="Q61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U61" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" s="1"/>
+      <c r="V61" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -5765,60 +5951,63 @@
         <v>1</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
         <v>22.5</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I62" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J62" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K62" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L62" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="M62" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="M62" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O62" s="0" t="s">
+      <c r="O62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R62" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S62" s="0" t="n">
-        <v>0</v>
+      <c r="Q62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U62" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" s="1"/>
+      <c r="V62" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -5831,60 +6020,63 @@
         <v>1</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
         <v>22.5</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I63" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K63" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L63" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="M63" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="M63" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N63" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O63" s="0" t="s">
+      <c r="O63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R63" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S63" s="0" t="n">
-        <v>0</v>
+      <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" s="1"/>
+      <c r="V63" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -5897,60 +6089,63 @@
         <v>1</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I64" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K64" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L64" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="M64" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="M64" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N64" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O64" s="0" t="s">
+      <c r="O64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R64" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S64" s="0" t="n">
-        <v>0</v>
+      <c r="Q64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U64" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" s="1"/>
+      <c r="V64" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -5963,60 +6158,63 @@
         <v>1</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I65" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K65" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L65" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="M65" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="M65" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N65" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O65" s="0" t="s">
+      <c r="O65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R65" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S65" s="0" t="n">
-        <v>0</v>
+      <c r="Q65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U65" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" s="1"/>
+      <c r="V65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -6029,60 +6227,63 @@
         <v>1</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I66" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K66" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L66" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="M66" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="M66" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N66" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O66" s="0" t="s">
+      <c r="O66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R66" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S66" s="0" t="n">
-        <v>0</v>
+      <c r="Q66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U66" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" s="1"/>
+      <c r="V66" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -6095,60 +6296,63 @@
         <v>1</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I67" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J67" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K67" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L67" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="M67" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M67" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N67" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O67" s="0" t="s">
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R67" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S67" s="0" t="n">
-        <v>0</v>
+      <c r="Q67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U67" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1"/>
+      <c r="V67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -6161,60 +6365,63 @@
         <v>1</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I68" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K68" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L68" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="M68" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="M68" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N68" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O68" s="0" t="s">
+      <c r="O68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R68" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S68" s="0" t="n">
-        <v>0</v>
+      <c r="Q68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" s="1"/>
+      <c r="V68" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -6227,60 +6434,63 @@
         <v>1</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I69" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>120</v>
+        <v>1.04548848515</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>120</v>
       </c>
       <c r="M69" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O69" s="0" t="s">
+      <c r="O69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R69" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S69" s="0" t="n">
-        <v>0</v>
+      <c r="Q69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" s="1"/>
+      <c r="V69" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -6293,60 +6503,63 @@
         <v>1</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H70" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I70" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K70" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L70" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="M70" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="M70" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N70" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O70" s="0" t="s">
+      <c r="O70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="P70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R70" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S70" s="0" t="n">
-        <v>0</v>
+      <c r="Q70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U70" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V70" s="1"/>
+      <c r="V70" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -6359,60 +6572,63 @@
         <v>1</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="H71" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I71" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K71" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L71" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="M71" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="M71" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N71" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O71" s="0" t="s">
+      <c r="O71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="P71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R71" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S71" s="0" t="n">
-        <v>0</v>
+      <c r="Q71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U71" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V71" s="1"/>
+      <c r="V71" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -6425,60 +6641,63 @@
         <v>1</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I72" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K72" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L72" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="M72" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="M72" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N72" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O72" s="0" t="s">
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="P72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R72" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S72" s="0" t="n">
-        <v>0</v>
+      <c r="Q72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U72" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" s="1"/>
+      <c r="V72" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -6491,60 +6710,63 @@
         <v>1</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I73" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K73" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L73" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="M73" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="M73" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N73" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O73" s="0" t="s">
+      <c r="O73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="P73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R73" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S73" s="0" t="n">
-        <v>0</v>
+      <c r="Q73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U73" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" s="1"/>
+      <c r="V73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -6557,60 +6779,63 @@
         <v>1</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="G74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="H74" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="I74" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J74" s="0" t="n">
-        <v>1.04548848515</v>
+        <v>12</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="K74" s="0" t="n">
+        <v>1.04548848515</v>
+      </c>
+      <c r="L74" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="M74" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="M74" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N74" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O74" s="0" t="s">
+      <c r="O74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="P74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R74" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S74" s="0" t="n">
-        <v>0</v>
+      <c r="Q74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="T74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="U74" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" s="1"/>
+      <c r="V74" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testcases/IrishNetwork.xlsx
+++ b/testcases/IrishNetwork.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="422" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="422" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -1404,10 +1404,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1438,33 +1438,36 @@
         <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1714,7 +1717,7 @@
   </sheetPr>
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
